--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,16 @@
           <t>Endereço</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>655e4d2d8110687c66620e44</t>
+          <t>6560faca512ed98e23bb3a47</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,18 +478,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>449.99</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>179.99</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>aaaaaaa aaa aaa 222 222 222</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>655e4d928110687c66620e57</t>
+          <t>6560fc7e99469fc9e785f2ea</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,13 +506,1112 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Camisa Nike Corinthians I 2023/24 Torcedor Pro Masculina</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>299.99</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>qq aaaa aaa 222 22 22</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6560fda40cc29011d01e484f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Camisa Nike Corinthians I 2023/24 Torcedor Pro Masculina</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>299.99</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>bbbbbbb bbbbbbbbb bbbbbbbbbb 3333 2222 1111</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6560fdeed2462237392bda8a</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ssss ssss sss 77777777 777 77</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>65678f3027fcadf10d316ceb</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>a a a 2 2 2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>65678fb927fcadf10d316d12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caio Farias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Umbro Santos Oficial 2 2023</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campinas Croata parque universitario 497 13056469 </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6568b559887896f14b824197</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>campinas campinas campinas 2 2 2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6568b9863353fea4fff5de05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>a a a 2 2 2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6568bcbbedc599ca9d63acb6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g g g 3 4 g</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6568bd69b6381680a9418379</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>b b b 3 3 b</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6568be5b5d93062478704364</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>h h h 2 2 h</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6568c10dc7822f9b218812fc</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Camisa Nike Corinthians I 2023/24 Torcedor Pro Masculina</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>299.99</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>u u u 7 7 7</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6568c2fcebfd979757f7d780</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>CONJUNTO TRACKSUIT MASCULINO</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D14" t="n">
         <v>439.9</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>t t t 3 3 3</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6568c39c4fe63a47bf6a67d3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>o o o 0 0 0</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6568c4a5a33a38a81b143dab</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ç ç ç 9 9 9</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6568c501caf1d95acb1c8b36</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Umbro Santos Oficial 2 2023</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>y y y 7 77 7</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6568c564caf1d95acb1c8b4b</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CONJUNTO TRACKSUIT MASCULINO</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>439.9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>r r r 5 5 5</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6568c5fc55774f2a027ef954</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>rr fefw sfsfs 222 2222 2222</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6568cad792681972a76fc74f</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>i i i 5 5 5</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6568cb9331e3d0cc682a8f31</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CONJUNTO TRACKSUIT MASCULINO</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>439.9</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>t t t 3 3 3</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6568cc509f357cd8dfd0108c</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>e e e 2 2 2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6568ccca942ee3bb19658c2c</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Camisa Nike Corinthians I 2023/24 Torcedor Pro Masculina</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>299.99</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>w w w 2 2 2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>6568cd0c942ee3bb19658c42</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>q q q 1 1 1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>6568cd4d13dea6a6f3aa09db</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Camisa Nike Corinthians I 2023/24 Torcedor Pro Masculina</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>299.99</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>e e e 4 4 4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>6568cd9413dea6a6f3aa0a1a</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Umbro Santos Oficial 2 2023</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>s s s 22 222 2222222</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>6568cd9413dea6a6f3aa0a1a</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Jaqueta Nike Club Hoodie Masculina</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>339.99</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>s s s 22 222 2222222</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>6568cdd313dea6a6f3aa0a5b</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>t t t 4 4 4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>6568cdd313dea6a6f3aa0a5b</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Umbro Santos Oficial 2 2023</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>t t t 4 4 4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>6568cee2a476dd4b3ae21f0b</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Umbro Santos Oficial 2 2023</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>r r r 6 6 6</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>6568cee2a476dd4b3ae21f0b</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>r r r 6 6 6</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6568d5428831da9717671a43</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>w w w 2 2 w</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6568d5eaf4a1186114c8e63d</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>a a a 1 1 1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>6568d5eaf4a1186114c8e63d</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Umbro Santos Oficial 2 2023</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>a a a 1 1 1</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>6568d63bc56bf081eaf110c7</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s s s 1 1 1</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>6568d63bc56bf081eaf110c7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CONJUNTO TRACKSUIT MASCULINO</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>439.9</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s s s 1 1 1</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>6568d693c56bf081eaf11124</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Camisa Nike Corinthians I 2023/24 Torcedor Pro Masculina</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>299.99</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>a a a 2 2 2</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6568d693c56bf081eaf11124</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CONJUNTO TRACKSUIT MASCULINO</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>439.9</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>a a a 2 2 2</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6568d693c56bf081eaf11124</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>a a a 2 2 2</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6568d693c56bf081eaf11124</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>a a a 2 2 2</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6568d7c4c56bf081eaf11176</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>campinas rua bairro 2 2131 11</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>656a05e8f13404cf055eb2c6</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Amber Forte</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>gg gg gg 22 2 22</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1613,6 +1613,118 @@
         <v>3</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>656e067e671a88300ff6e93b</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Time de testes</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CONJUNTO TRACKSUIT MASCULINO</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>439.9</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taubaté jose silva centro 123 12010130 </t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>656f774c32cd0a25039651a4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Thayná Alves Quinteiro</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BLUSA MOLETOM ZÍPER CAPUZ ADIDAS ESSENTIALS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>179.99</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>França França lebron Paris 1407 45678 torre eiffel</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>656f774c32cd0a25039651a4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thayná Alves Quinteiro</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Jaqueta Nike Club Hoodie Masculina</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>339.99</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>França França lebron Paris 1407 45678 torre eiffel</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>656f774c32cd0a25039651a4</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thayná Alves Quinteiro</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Chuteira Nike Mercurial Vapor 15 Club Futsal</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>449.99</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>França França lebron Paris 1407 45678 torre eiffel</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
